--- a/Code/Results/Cases/Case_3_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.097809658866396</v>
+        <v>0.6494732456125973</v>
       </c>
       <c r="C2">
-        <v>0.09760636852693239</v>
+        <v>0.09309770609986145</v>
       </c>
       <c r="D2">
-        <v>0.1078046308723657</v>
+        <v>0.1498256648428224</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8429273031461832</v>
+        <v>1.821726700776487</v>
       </c>
       <c r="G2">
-        <v>0.0008285384518691853</v>
+        <v>0.002502836565403285</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5020991941264867</v>
+        <v>1.1725974267219</v>
       </c>
       <c r="J2">
-        <v>0.08035311713745585</v>
+        <v>0.2020730296455824</v>
       </c>
       <c r="K2">
-        <v>0.9527231276639441</v>
+        <v>0.3848363136969795</v>
       </c>
       <c r="L2">
-        <v>0.2654087223561561</v>
+        <v>0.3572670408846221</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.106111067153094</v>
+        <v>4.681260454064613</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9554191144867445</v>
+        <v>0.6089699927461822</v>
       </c>
       <c r="C3">
-        <v>0.09280495539732669</v>
+        <v>0.09140758726643838</v>
       </c>
       <c r="D3">
-        <v>0.09696437318827122</v>
+        <v>0.1474393341655613</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8337699199066364</v>
+        <v>1.831029838982673</v>
       </c>
       <c r="G3">
-        <v>0.0008322177053174889</v>
+        <v>0.002505262397327975</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5112979868738421</v>
+        <v>1.182315750378546</v>
       </c>
       <c r="J3">
-        <v>0.08058750896383771</v>
+        <v>0.2031976675818257</v>
       </c>
       <c r="K3">
-        <v>0.829067707797833</v>
+        <v>0.3477678295008104</v>
       </c>
       <c r="L3">
-        <v>0.2394812857784672</v>
+        <v>0.3518618238052369</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.113339058782117</v>
+        <v>4.713890662532549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8681844900915507</v>
+        <v>0.5842533235204428</v>
       </c>
       <c r="C4">
-        <v>0.08985508914456375</v>
+        <v>0.09036100408651038</v>
       </c>
       <c r="D4">
-        <v>0.09036892341055847</v>
+        <v>0.146024966206987</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8295370333254581</v>
+        <v>1.83755886458583</v>
       </c>
       <c r="G4">
-        <v>0.0008345538984408374</v>
+        <v>0.002506832269440347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5178168421514115</v>
+        <v>1.188784407837343</v>
       </c>
       <c r="J4">
-        <v>0.08083236103072977</v>
+        <v>0.2039568026028391</v>
       </c>
       <c r="K4">
-        <v>0.7531983027452043</v>
+        <v>0.3250351446052093</v>
       </c>
       <c r="L4">
-        <v>0.223758752960066</v>
+        <v>0.3486816261462593</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.121566674701583</v>
+        <v>4.736068753387755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8326732068932472</v>
+        <v>0.5742202045479985</v>
       </c>
       <c r="C5">
-        <v>0.08865218616544013</v>
+        <v>0.089932312070097</v>
       </c>
       <c r="D5">
-        <v>0.08769545358681796</v>
+        <v>0.145461465623363</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8281492988630887</v>
+        <v>1.840425095327767</v>
       </c>
       <c r="G5">
-        <v>0.0008355256086962235</v>
+        <v>0.002507492281458638</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5206857849130877</v>
+        <v>1.191546632966229</v>
       </c>
       <c r="J5">
-        <v>0.0809568994451233</v>
+        <v>0.2042834337443935</v>
       </c>
       <c r="K5">
-        <v>0.7222855002190016</v>
+        <v>0.3157789270555895</v>
       </c>
       <c r="L5">
-        <v>0.2173979796940841</v>
+        <v>0.3474206870474035</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.125839717006258</v>
+        <v>4.745645682409489</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8267785376204415</v>
+        <v>0.5725565987764867</v>
       </c>
       <c r="C6">
-        <v>0.08845238613072581</v>
+        <v>0.08986099583614759</v>
       </c>
       <c r="D6">
-        <v>0.08725235749430738</v>
+        <v>0.1453686761868482</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8279388843833644</v>
+        <v>1.840913454168295</v>
       </c>
       <c r="G6">
-        <v>0.0008356881584009646</v>
+        <v>0.002507603102479268</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5211748178111648</v>
+        <v>1.192012922297494</v>
       </c>
       <c r="J6">
-        <v>0.08097905668653382</v>
+        <v>0.2043387148986184</v>
       </c>
       <c r="K6">
-        <v>0.7171524671838938</v>
+        <v>0.3142424125586842</v>
       </c>
       <c r="L6">
-        <v>0.216344481634053</v>
+        <v>0.3472134286867004</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.126603903476806</v>
+        <v>4.747268497952618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8677054348550257</v>
+        <v>0.5841178539211285</v>
       </c>
       <c r="C7">
-        <v>0.08983887010735714</v>
+        <v>0.0903552314758258</v>
       </c>
       <c r="D7">
-        <v>0.09033281171478791</v>
+        <v>0.146017314441778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8295169683493668</v>
+        <v>1.837596686854226</v>
       </c>
       <c r="G7">
-        <v>0.0008345669231201714</v>
+        <v>0.002506841088564012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5178546818698138</v>
+        <v>1.188821149119605</v>
       </c>
       <c r="J7">
-        <v>0.08083394115155329</v>
+        <v>0.2039611376729162</v>
       </c>
       <c r="K7">
-        <v>0.7527813952563918</v>
+        <v>0.3249102806844917</v>
       </c>
       <c r="L7">
-        <v>0.2236727861204741</v>
+        <v>0.3486644786863451</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.121620618623908</v>
+        <v>4.736195727700434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.048666216938813</v>
+        <v>0.6354765277864658</v>
       </c>
       <c r="C8">
-        <v>0.09595098400797752</v>
+        <v>0.0925168017684328</v>
       </c>
       <c r="D8">
-        <v>0.1040537380597613</v>
+        <v>0.1489923510353179</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8394738245514404</v>
+        <v>1.824764997877452</v>
       </c>
       <c r="G8">
-        <v>0.0008297912381244887</v>
+        <v>0.002503656340655546</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5050862082959853</v>
+        <v>1.175844247511716</v>
       </c>
       <c r="J8">
-        <v>0.08041260371025771</v>
+        <v>0.2024465822911772</v>
       </c>
       <c r="K8">
-        <v>0.9100693734159506</v>
+        <v>0.3720497480207428</v>
       </c>
       <c r="L8">
-        <v>0.2564260340308522</v>
+        <v>0.3553746424176296</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.107796593790681</v>
+        <v>4.692066746156485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.405620310128114</v>
+        <v>0.7373717816691681</v>
       </c>
       <c r="C9">
-        <v>0.1079408444771559</v>
+        <v>0.09668465262055292</v>
       </c>
       <c r="D9">
-        <v>0.1314889007474846</v>
+        <v>0.1552267622091392</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8706099809141108</v>
+        <v>1.806075813084547</v>
       </c>
       <c r="G9">
-        <v>0.0008210236921515615</v>
+        <v>0.002498046317756825</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4872639477056246</v>
+        <v>1.154373169539166</v>
       </c>
       <c r="J9">
-        <v>0.08041671963760422</v>
+        <v>0.2000197254608373</v>
       </c>
       <c r="K9">
-        <v>1.219415512472807</v>
+        <v>0.4646859092740101</v>
       </c>
       <c r="L9">
-        <v>0.3223763777822626</v>
+        <v>0.3696272214908021</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.112308959687653</v>
+        <v>4.622521764530944</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.669991460011687</v>
+        <v>0.8129232214489832</v>
       </c>
       <c r="C10">
-        <v>0.1167803008956199</v>
+        <v>0.09970268798851123</v>
       </c>
       <c r="D10">
-        <v>0.1520405801285278</v>
+        <v>0.1600477078003451</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9014218246018899</v>
+        <v>1.796282229133098</v>
       </c>
       <c r="G10">
-        <v>0.0008149254141439005</v>
+        <v>0.002494308131119838</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4790194590651708</v>
+        <v>1.141018424225386</v>
       </c>
       <c r="J10">
-        <v>0.0809691905610137</v>
+        <v>0.1985663399969049</v>
       </c>
       <c r="K10">
-        <v>1.4479524058072</v>
+        <v>0.5328416289239328</v>
       </c>
       <c r="L10">
-        <v>0.3721162564182379</v>
+        <v>0.3807589045761972</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.137180960619105</v>
+        <v>4.581771284340221</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.790922324216837</v>
+        <v>0.8474370647994363</v>
       </c>
       <c r="C11">
-        <v>0.1208150777668635</v>
+        <v>0.1010659446500384</v>
       </c>
       <c r="D11">
-        <v>0.1614931551016383</v>
+        <v>0.1622923921473927</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9173648104367658</v>
+        <v>1.792679978136761</v>
       </c>
       <c r="G11">
-        <v>0.0008122207780792547</v>
+        <v>0.002492690004074857</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4764280666836669</v>
+        <v>1.1354676319513</v>
       </c>
       <c r="J11">
-        <v>0.08135001238476036</v>
+        <v>0.1979764167054796</v>
       </c>
       <c r="K11">
-        <v>1.552363587182384</v>
+        <v>0.5638637253270247</v>
       </c>
       <c r="L11">
-        <v>0.3950797111284601</v>
+        <v>0.3859650665069978</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.153715847477599</v>
+        <v>4.565476097132802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.836829163837706</v>
+        <v>0.8605267454438206</v>
       </c>
       <c r="C12">
-        <v>0.1223455135690799</v>
+        <v>0.1015807659267836</v>
       </c>
       <c r="D12">
-        <v>0.1650889786983356</v>
+        <v>0.1631497449522357</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9236970548019485</v>
+        <v>1.791438377155885</v>
       </c>
       <c r="G12">
-        <v>0.0008112061739604077</v>
+        <v>0.002492089049019129</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4756229453174257</v>
+        <v>1.133441029035204</v>
       </c>
       <c r="J12">
-        <v>0.08151374540081235</v>
+        <v>0.1977632450465983</v>
       </c>
       <c r="K12">
-        <v>1.591980691840917</v>
+        <v>0.5756130019905186</v>
       </c>
       <c r="L12">
-        <v>0.4038286771553317</v>
+        <v>0.3879568273357137</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.160776028976358</v>
+        <v>4.559627747967653</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.826936997124903</v>
+        <v>0.8577067705442118</v>
       </c>
       <c r="C13">
-        <v>0.1220157833673454</v>
+        <v>0.1014699532563128</v>
       </c>
       <c r="D13">
-        <v>0.1643138029141937</v>
+        <v>0.1629647735649655</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9223198747634029</v>
+        <v>1.791700332653392</v>
       </c>
       <c r="G13">
-        <v>0.0008114242677343178</v>
+        <v>0.002492217951615877</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4757883487001706</v>
+        <v>1.133874143123542</v>
       </c>
       <c r="J13">
-        <v>0.08147759924974451</v>
+        <v>0.1978087012311676</v>
       </c>
       <c r="K13">
-        <v>1.583444692593389</v>
+        <v>0.5730825119155156</v>
       </c>
       <c r="L13">
-        <v>0.401941984429925</v>
+        <v>0.3875269657343523</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.159219166532836</v>
+        <v>4.560872963637905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.794696742090849</v>
+        <v>0.8485135638742065</v>
       </c>
       <c r="C14">
-        <v>0.1209409329191971</v>
+        <v>0.1011083277947264</v>
       </c>
       <c r="D14">
-        <v>0.1617886495563425</v>
+        <v>0.1623627804534067</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.917879749078665</v>
+        <v>1.792575376803896</v>
       </c>
       <c r="G14">
-        <v>0.0008121371163905785</v>
+        <v>0.002492640327053686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4763582411975946</v>
+        <v>1.135299391972843</v>
       </c>
       <c r="J14">
-        <v>0.08136308613569199</v>
+        <v>0.1979586742636137</v>
       </c>
       <c r="K14">
-        <v>1.555621243888538</v>
+        <v>0.5648303114774649</v>
       </c>
       <c r="L14">
-        <v>0.3957983988258178</v>
+        <v>0.3861285239534453</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.154280397256883</v>
+        <v>4.564988491846577</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.774963889795401</v>
+        <v>0.842885044182168</v>
       </c>
       <c r="C15">
-        <v>0.1202829068243076</v>
+        <v>0.1008866368197729</v>
       </c>
       <c r="D15">
-        <v>0.1602440927501902</v>
+        <v>0.1619949956809137</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.915199012131481</v>
+        <v>1.79312731432104</v>
       </c>
       <c r="G15">
-        <v>0.0008125749921248897</v>
+        <v>0.002492900578696853</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4767305539007509</v>
+        <v>1.136182211202851</v>
       </c>
       <c r="J15">
-        <v>0.08129551390543099</v>
+        <v>0.198051867269065</v>
       </c>
       <c r="K15">
-        <v>1.53858929135825</v>
+        <v>0.5597758258012107</v>
       </c>
       <c r="L15">
-        <v>0.3920423523042871</v>
+        <v>0.3852745768512449</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.15136076488514</v>
+        <v>4.567551337585172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.662103194552714</v>
+        <v>0.8106705096805911</v>
       </c>
       <c r="C16">
-        <v>0.1165169428758475</v>
+        <v>0.09961339938370628</v>
       </c>
       <c r="D16">
-        <v>0.1514250371707959</v>
+        <v>0.1599020439366825</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9004201873819468</v>
+        <v>1.79653479418549</v>
       </c>
       <c r="G16">
-        <v>0.0008151035324562856</v>
+        <v>0.002494415533013747</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4792129349850853</v>
+        <v>1.141391729446052</v>
       </c>
       <c r="J16">
-        <v>0.08094698465933803</v>
+        <v>0.1986063242001066</v>
       </c>
       <c r="K16">
-        <v>1.441139119378192</v>
+        <v>0.5308145615354363</v>
       </c>
       <c r="L16">
-        <v>0.3706227165328073</v>
+        <v>0.3804215192441802</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.136209454062509</v>
+        <v>4.582881321538082</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.593049403635945</v>
+        <v>0.7909445121383385</v>
       </c>
       <c r="C17">
-        <v>0.1142105489488827</v>
+        <v>0.09882981679305658</v>
       </c>
       <c r="D17">
-        <v>0.1460423490154739</v>
+        <v>0.1586312463934547</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8918596927577624</v>
+        <v>1.798843512225936</v>
       </c>
       <c r="G17">
-        <v>0.0008166722256873965</v>
+        <v>0.00249536597308174</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4810392345328154</v>
+        <v>1.144721870538149</v>
       </c>
       <c r="J17">
-        <v>0.08076696552619467</v>
+        <v>0.1989646925326376</v>
       </c>
       <c r="K17">
-        <v>1.381481376258307</v>
+        <v>0.5130518275572911</v>
       </c>
       <c r="L17">
-        <v>0.3575719811327218</v>
+        <v>0.3774806570845328</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.128284924811169</v>
+        <v>4.592859983448761</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.553393190878438</v>
+        <v>0.7796123484140765</v>
       </c>
       <c r="C18">
-        <v>0.1128852201663193</v>
+        <v>0.09837821278733827</v>
       </c>
       <c r="D18">
-        <v>0.1429560197507413</v>
+        <v>0.1579051801316922</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8871161142055044</v>
+        <v>1.800251713850955</v>
       </c>
       <c r="G18">
-        <v>0.0008175810643378864</v>
+        <v>0.002495920399228932</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4821981657363743</v>
+        <v>1.146686636081984</v>
       </c>
       <c r="J18">
-        <v>0.08067555516879921</v>
+        <v>0.1991775223145567</v>
       </c>
       <c r="K18">
-        <v>1.347209125221582</v>
+        <v>0.5028368801218619</v>
       </c>
       <c r="L18">
-        <v>0.3500969129155607</v>
+        <v>0.3758025549556692</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.124215260876781</v>
+        <v>4.59881052239254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.53997637701417</v>
+        <v>0.7757778522403385</v>
       </c>
       <c r="C19">
-        <v>0.1124366838247397</v>
+        <v>0.0982251522385198</v>
       </c>
       <c r="D19">
-        <v>0.1419126564338455</v>
+        <v>0.157660184280715</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8855404400620515</v>
+        <v>1.800742300926437</v>
       </c>
       <c r="G19">
-        <v>0.0008178899216858034</v>
+        <v>0.002496109452660916</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4826089137284342</v>
+        <v>1.147360350149366</v>
       </c>
       <c r="J19">
-        <v>0.080646662283403</v>
+        <v>0.1992507352558093</v>
       </c>
       <c r="K19">
-        <v>1.335611803750965</v>
+        <v>0.4993785879935615</v>
       </c>
       <c r="L19">
-        <v>0.3475712296212379</v>
+        <v>0.3752366855198801</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.122919797747755</v>
+        <v>4.600861530459269</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.600393792287321</v>
+        <v>0.7930429655115745</v>
       </c>
       <c r="C20">
-        <v>0.114455935249822</v>
+        <v>0.0989133246567846</v>
       </c>
       <c r="D20">
-        <v>0.1466143363302166</v>
+        <v>0.1587660222684519</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8927521965803749</v>
+        <v>1.798589436838938</v>
       </c>
       <c r="G20">
-        <v>0.0008165045588010003</v>
+        <v>0.002495263994398514</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.480833526389798</v>
+        <v>1.144362263407007</v>
       </c>
       <c r="J20">
-        <v>0.08078486691150033</v>
+        <v>0.1989258497553159</v>
       </c>
       <c r="K20">
-        <v>1.387827669331955</v>
+        <v>0.5149425290380805</v>
       </c>
       <c r="L20">
-        <v>0.3589579737312505</v>
+        <v>0.3777923307974334</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.129077627505751</v>
+        <v>4.591775893460294</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.804163279471311</v>
+        <v>0.8512132943194786</v>
       </c>
       <c r="C21">
-        <v>0.1212565683136049</v>
+        <v>0.1012145845444223</v>
       </c>
       <c r="D21">
-        <v>0.1625298928230876</v>
+        <v>0.1625394018839756</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9191757669606062</v>
+        <v>1.79231503191032</v>
       </c>
       <c r="G21">
-        <v>0.0008119274788144156</v>
+        <v>0.002492515945594289</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4761859895087142</v>
+        <v>1.134878716853727</v>
       </c>
       <c r="J21">
-        <v>0.08139618406153204</v>
+        <v>0.1979143463789512</v>
       </c>
       <c r="K21">
-        <v>1.563791405501064</v>
+        <v>0.5672541370007593</v>
       </c>
       <c r="L21">
-        <v>0.3976014349418335</v>
+        <v>0.3865387305557988</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.155708955692234</v>
+        <v>4.563770916105028</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.938005546916855</v>
+        <v>0.8893473755527452</v>
       </c>
       <c r="C22">
-        <v>0.1257163678576347</v>
+        <v>0.1027103350444349</v>
       </c>
       <c r="D22">
-        <v>0.1730276072970867</v>
+        <v>0.1650482660985375</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9381736753631316</v>
+        <v>1.788928259218409</v>
       </c>
       <c r="G22">
-        <v>0.0008089917401484054</v>
+        <v>0.002490788659286863</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4741803548903718</v>
+        <v>1.129119918346973</v>
       </c>
       <c r="J22">
-        <v>0.08190997691433211</v>
+        <v>0.1973128267504478</v>
       </c>
       <c r="K22">
-        <v>1.679260942226222</v>
+        <v>0.6014534591332108</v>
       </c>
       <c r="L22">
-        <v>0.4231697549866311</v>
+        <v>0.3923732585700321</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.177794638321956</v>
+        <v>4.547346486041278</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.866504420913088</v>
+        <v>0.8689841209834412</v>
       </c>
       <c r="C23">
-        <v>0.1233344910927201</v>
+        <v>0.1019127884621724</v>
       </c>
       <c r="D23">
-        <v>0.1674154919607389</v>
+        <v>0.1637053542332296</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9278697244642586</v>
+        <v>1.790670570892203</v>
       </c>
       <c r="G23">
-        <v>0.0008105536496361783</v>
+        <v>0.002491704273769555</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.475153082261798</v>
+        <v>1.132153319169596</v>
       </c>
       <c r="J23">
-        <v>0.08162498780859551</v>
+        <v>0.1976284273252986</v>
       </c>
       <c r="K23">
-        <v>1.617584921968501</v>
+        <v>0.5831998811445942</v>
       </c>
       <c r="L23">
-        <v>0.409493184507653</v>
+        <v>0.3892484950274309</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.165562081710505</v>
+        <v>4.555940692601808</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.597073259236026</v>
+        <v>0.7920942279685619</v>
       </c>
       <c r="C24">
-        <v>0.1143449941290839</v>
+        <v>0.09887557421250648</v>
       </c>
       <c r="D24">
-        <v>0.146355715277636</v>
+        <v>0.1587050759721222</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8923481426280375</v>
+        <v>1.798704052346281</v>
       </c>
       <c r="G24">
-        <v>0.0008165803392474921</v>
+        <v>0.002495310074148326</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4809261883444691</v>
+        <v>1.144524685345658</v>
       </c>
       <c r="J24">
-        <v>0.08077673612049097</v>
+        <v>0.1989433893951791</v>
       </c>
       <c r="K24">
-        <v>1.384958431005998</v>
+        <v>0.5140877519294236</v>
       </c>
       <c r="L24">
-        <v>0.3583312797063769</v>
+        <v>0.3776513837324131</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.128717735644472</v>
+        <v>4.592265344949425</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.308747325035739</v>
+        <v>0.7096831907826129</v>
       </c>
       <c r="C25">
-        <v>0.1046940758198076</v>
+        <v>0.09556482223538865</v>
       </c>
       <c r="D25">
-        <v>0.1240031222185962</v>
+        <v>0.1534976940453419</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8608583224206541</v>
+        <v>1.810439626686708</v>
       </c>
       <c r="G25">
-        <v>0.0008233336838136167</v>
+        <v>0.002499496360575199</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4912679013891079</v>
+        <v>1.159756377057903</v>
       </c>
       <c r="J25">
-        <v>0.08032239677783792</v>
+        <v>0.2006182597905166</v>
       </c>
       <c r="K25">
-        <v>1.13556201989897</v>
+        <v>0.4396068417128731</v>
       </c>
       <c r="L25">
-        <v>0.304327203487901</v>
+        <v>0.3656550870597073</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.107475961943265</v>
+        <v>4.639517929082672</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6494732456125973</v>
+        <v>1.097809658866254</v>
       </c>
       <c r="C2">
-        <v>0.09309770609986145</v>
+        <v>0.09760636852693239</v>
       </c>
       <c r="D2">
-        <v>0.1498256648428224</v>
+        <v>0.1078046308722236</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.821726700776487</v>
+        <v>0.8429273031461832</v>
       </c>
       <c r="G2">
-        <v>0.002502836565403285</v>
+        <v>0.0008285384518089003</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.1725974267219</v>
+        <v>0.5020991941264867</v>
       </c>
       <c r="J2">
-        <v>0.2020730296455824</v>
+        <v>0.0803531171374452</v>
       </c>
       <c r="K2">
-        <v>0.3848363136969795</v>
+        <v>0.9527231276640009</v>
       </c>
       <c r="L2">
-        <v>0.3572670408846221</v>
+        <v>0.2654087223560992</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.681260454064613</v>
+        <v>2.10611106715308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6089699927461822</v>
+        <v>0.9554191144867445</v>
       </c>
       <c r="C3">
-        <v>0.09140758726643838</v>
+        <v>0.09280495539724853</v>
       </c>
       <c r="D3">
-        <v>0.1474393341655613</v>
+        <v>0.09696437318817175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.831029838982673</v>
+        <v>0.8337699199066364</v>
       </c>
       <c r="G3">
-        <v>0.002505262397327975</v>
+        <v>0.0008322177053560691</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.182315750378546</v>
+        <v>0.5112979868738385</v>
       </c>
       <c r="J3">
-        <v>0.2031976675818257</v>
+        <v>0.08058750896388744</v>
       </c>
       <c r="K3">
-        <v>0.3477678295008104</v>
+        <v>0.8290677077979183</v>
       </c>
       <c r="L3">
-        <v>0.3518618238052369</v>
+        <v>0.2394812857784672</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.713890662532549</v>
+        <v>2.113339058782103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5842533235204428</v>
+        <v>0.8681844900915223</v>
       </c>
       <c r="C4">
-        <v>0.09036100408651038</v>
+        <v>0.08985508914456375</v>
       </c>
       <c r="D4">
-        <v>0.146024966206987</v>
+        <v>0.09036892341055847</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.83755886458583</v>
+        <v>0.8295370333254581</v>
       </c>
       <c r="G4">
-        <v>0.002506832269440347</v>
+        <v>0.0008345538984212975</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.188784407837343</v>
+        <v>0.5178168421513902</v>
       </c>
       <c r="J4">
-        <v>0.2039568026028391</v>
+        <v>0.08083236103074043</v>
       </c>
       <c r="K4">
-        <v>0.3250351446052093</v>
+        <v>0.7531983027452327</v>
       </c>
       <c r="L4">
-        <v>0.3486816261462593</v>
+        <v>0.2237587529601939</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.736068753387755</v>
+        <v>2.121566674701555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5742202045479985</v>
+        <v>0.8326732068933325</v>
       </c>
       <c r="C5">
-        <v>0.089932312070097</v>
+        <v>0.08865218616520565</v>
       </c>
       <c r="D5">
-        <v>0.145461465623363</v>
+        <v>0.08769545358669717</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.840425095327767</v>
+        <v>0.8281492988630461</v>
       </c>
       <c r="G5">
-        <v>0.002507492281458638</v>
+        <v>0.0008355256087350315</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.191546632966229</v>
+        <v>0.5206857849130735</v>
       </c>
       <c r="J5">
-        <v>0.2042834337443935</v>
+        <v>0.08095689944507001</v>
       </c>
       <c r="K5">
-        <v>0.3157789270555895</v>
+        <v>0.72228550021903</v>
       </c>
       <c r="L5">
-        <v>0.3474206870474035</v>
+        <v>0.2173979796940699</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.745645682409489</v>
+        <v>2.12583971700623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5725565987764867</v>
+        <v>0.8267785376204415</v>
       </c>
       <c r="C6">
-        <v>0.08986099583614759</v>
+        <v>0.08845238613049844</v>
       </c>
       <c r="D6">
-        <v>0.1453686761868482</v>
+        <v>0.08725235749442817</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.840913454168295</v>
+        <v>0.8279388843833573</v>
       </c>
       <c r="G6">
-        <v>0.002507603102479268</v>
+        <v>0.0008356881584606526</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.192012922297494</v>
+        <v>0.5211748178111506</v>
       </c>
       <c r="J6">
-        <v>0.2043387148986184</v>
+        <v>0.08097905668650895</v>
       </c>
       <c r="K6">
-        <v>0.3142424125586842</v>
+        <v>0.717152467183837</v>
       </c>
       <c r="L6">
-        <v>0.3472134286867004</v>
+        <v>0.2163444816340103</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.747268497952618</v>
+        <v>2.126603903476735</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5841178539211285</v>
+        <v>0.8677054348550257</v>
       </c>
       <c r="C7">
-        <v>0.0903552314758258</v>
+        <v>0.08983887010727898</v>
       </c>
       <c r="D7">
-        <v>0.146017314441778</v>
+        <v>0.09033281171475949</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.837596686854226</v>
+        <v>0.8295169683493455</v>
       </c>
       <c r="G7">
-        <v>0.002506841088564012</v>
+        <v>0.0008345669231605207</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.188821149119605</v>
+        <v>0.5178546818698067</v>
       </c>
       <c r="J7">
-        <v>0.2039611376729162</v>
+        <v>0.08083394115147513</v>
       </c>
       <c r="K7">
-        <v>0.3249102806844917</v>
+        <v>0.7527813952563918</v>
       </c>
       <c r="L7">
-        <v>0.3486644786863451</v>
+        <v>0.2236727861203889</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.736195727700434</v>
+        <v>2.121620618623879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6354765277864658</v>
+        <v>1.048666216938756</v>
       </c>
       <c r="C8">
-        <v>0.0925168017684328</v>
+        <v>0.09595098400789936</v>
       </c>
       <c r="D8">
-        <v>0.1489923510353179</v>
+        <v>0.1040537380597328</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.824764997877452</v>
+        <v>0.8394738245514546</v>
       </c>
       <c r="G8">
-        <v>0.002503656340655546</v>
+        <v>0.000829791238161677</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.175844247511716</v>
+        <v>0.505086208296003</v>
       </c>
       <c r="J8">
-        <v>0.2024465822911772</v>
+        <v>0.08041260371028613</v>
       </c>
       <c r="K8">
-        <v>0.3720497480207428</v>
+        <v>0.9100693734159506</v>
       </c>
       <c r="L8">
-        <v>0.3553746424176296</v>
+        <v>0.2564260340308664</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.692066746156485</v>
+        <v>2.107796593790709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7373717816691681</v>
+        <v>1.405620310127972</v>
       </c>
       <c r="C9">
-        <v>0.09668465262055292</v>
+        <v>0.1079408444769214</v>
       </c>
       <c r="D9">
-        <v>0.1552267622091392</v>
+        <v>0.1314889007474704</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.806075813084547</v>
+        <v>0.8706099809141179</v>
       </c>
       <c r="G9">
-        <v>0.002498046317756825</v>
+        <v>0.0008210236921512274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.154373169539166</v>
+        <v>0.4872639477056211</v>
       </c>
       <c r="J9">
-        <v>0.2000197254608373</v>
+        <v>0.08041671963754027</v>
       </c>
       <c r="K9">
-        <v>0.4646859092740101</v>
+        <v>1.21941551247275</v>
       </c>
       <c r="L9">
-        <v>0.3696272214908021</v>
+        <v>0.3223763777821773</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.622521764530944</v>
+        <v>2.112308959687596</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8129232214489832</v>
+        <v>1.669991460011659</v>
       </c>
       <c r="C10">
-        <v>0.09970268798851123</v>
+        <v>0.1167803008952788</v>
       </c>
       <c r="D10">
-        <v>0.1600477078003451</v>
+        <v>0.1520405801283999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.796282229133098</v>
+        <v>0.9014218246019041</v>
       </c>
       <c r="G10">
-        <v>0.002494308131119838</v>
+        <v>0.0008149254141734879</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.141018424225386</v>
+        <v>0.4790194590651673</v>
       </c>
       <c r="J10">
-        <v>0.1985663399969049</v>
+        <v>0.08096919056086449</v>
       </c>
       <c r="K10">
-        <v>0.5328416289239328</v>
+        <v>1.447952405807172</v>
       </c>
       <c r="L10">
-        <v>0.3807589045761972</v>
+        <v>0.3721162564182805</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.581771284340221</v>
+        <v>2.137180960619077</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8474370647994363</v>
+        <v>1.790922324216695</v>
       </c>
       <c r="C11">
-        <v>0.1010659446500384</v>
+        <v>0.1208150777670127</v>
       </c>
       <c r="D11">
-        <v>0.1622923921473927</v>
+        <v>0.1614931551018657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.792679978136761</v>
+        <v>0.9173648104367658</v>
       </c>
       <c r="G11">
-        <v>0.002492690004074857</v>
+        <v>0.0008122207781079436</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.1354676319513</v>
+        <v>0.4764280666836598</v>
       </c>
       <c r="J11">
-        <v>0.1979764167054796</v>
+        <v>0.08135001238471418</v>
       </c>
       <c r="K11">
-        <v>0.5638637253270247</v>
+        <v>1.552363587182271</v>
       </c>
       <c r="L11">
-        <v>0.3859650665069978</v>
+        <v>0.3950797111284459</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.565476097132802</v>
+        <v>2.153715847477486</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8605267454438206</v>
+        <v>1.836829163837763</v>
       </c>
       <c r="C12">
-        <v>0.1015807659267836</v>
+        <v>0.1223455135694209</v>
       </c>
       <c r="D12">
-        <v>0.1631497449522357</v>
+        <v>0.1650889786983498</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.791438377155885</v>
+        <v>0.9236970548019201</v>
       </c>
       <c r="G12">
-        <v>0.002492089049019129</v>
+        <v>0.0008112061739888437</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.133441029035204</v>
+        <v>0.4756229453174043</v>
       </c>
       <c r="J12">
-        <v>0.1977632450465983</v>
+        <v>0.08151374540070933</v>
       </c>
       <c r="K12">
-        <v>0.5756130019905186</v>
+        <v>1.59198069184103</v>
       </c>
       <c r="L12">
-        <v>0.3879568273357137</v>
+        <v>0.4038286771553743</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.559627747967653</v>
+        <v>2.160776028976358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8577067705442118</v>
+        <v>1.826936997125074</v>
       </c>
       <c r="C13">
-        <v>0.1014699532563128</v>
+        <v>0.1220157833677789</v>
       </c>
       <c r="D13">
-        <v>0.1629647735649655</v>
+        <v>0.1643138029139664</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.791700332653392</v>
+        <v>0.9223198747633887</v>
       </c>
       <c r="G13">
-        <v>0.002492217951615877</v>
+        <v>0.0008114242677634406</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.133874143123542</v>
+        <v>0.4757883487001706</v>
       </c>
       <c r="J13">
-        <v>0.1978087012311676</v>
+        <v>0.08147759924968412</v>
       </c>
       <c r="K13">
-        <v>0.5730825119155156</v>
+        <v>1.583444692593389</v>
       </c>
       <c r="L13">
-        <v>0.3875269657343523</v>
+        <v>0.4019419844299108</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.560872963637905</v>
+        <v>2.159219166532807</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8485135638742065</v>
+        <v>1.794696742090906</v>
       </c>
       <c r="C14">
-        <v>0.1011083277947264</v>
+        <v>0.120940932919062</v>
       </c>
       <c r="D14">
-        <v>0.1623627804534067</v>
+        <v>0.1617886495564562</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.792575376803896</v>
+        <v>0.917879749078665</v>
       </c>
       <c r="G14">
-        <v>0.002492640327053686</v>
+        <v>0.0008121371163903332</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.135299391972843</v>
+        <v>0.4763582411976088</v>
       </c>
       <c r="J14">
-        <v>0.1979586742636137</v>
+        <v>0.08136308613568843</v>
       </c>
       <c r="K14">
-        <v>0.5648303114774649</v>
+        <v>1.555621243888453</v>
       </c>
       <c r="L14">
-        <v>0.3861285239534453</v>
+        <v>0.3957983988258604</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.564988491846577</v>
+        <v>2.154280397256798</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.842885044182168</v>
+        <v>1.77496388979543</v>
       </c>
       <c r="C15">
-        <v>0.1008866368197729</v>
+        <v>0.1202829068244</v>
       </c>
       <c r="D15">
-        <v>0.1619949956809137</v>
+        <v>0.1602440927500624</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.79312731432104</v>
+        <v>0.915199012131481</v>
       </c>
       <c r="G15">
-        <v>0.002492900578696853</v>
+        <v>0.0008125749921254971</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.136182211202851</v>
+        <v>0.4767305539007225</v>
       </c>
       <c r="J15">
-        <v>0.198051867269065</v>
+        <v>0.0812955139054452</v>
       </c>
       <c r="K15">
-        <v>0.5597758258012107</v>
+        <v>1.538589291358136</v>
       </c>
       <c r="L15">
-        <v>0.3852745768512449</v>
+        <v>0.3920423523042729</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.567551337585172</v>
+        <v>2.151360764885084</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8106705096805911</v>
+        <v>1.662103194552685</v>
       </c>
       <c r="C16">
-        <v>0.09961339938370628</v>
+        <v>0.1165169428758475</v>
       </c>
       <c r="D16">
-        <v>0.1599020439366825</v>
+        <v>0.1514250371709096</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.79653479418549</v>
+        <v>0.9004201873819468</v>
       </c>
       <c r="G16">
-        <v>0.002494415533013747</v>
+        <v>0.0008151035324019947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.141391729446052</v>
+        <v>0.4792129349850782</v>
       </c>
       <c r="J16">
-        <v>0.1986063242001066</v>
+        <v>0.08094698465932382</v>
       </c>
       <c r="K16">
-        <v>0.5308145615354363</v>
+        <v>1.441139119378306</v>
       </c>
       <c r="L16">
-        <v>0.3804215192441802</v>
+        <v>0.3706227165328926</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.582881321538082</v>
+        <v>2.136209454062509</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7909445121383385</v>
+        <v>1.593049403635945</v>
       </c>
       <c r="C17">
-        <v>0.09882981679305658</v>
+        <v>0.1142105489483995</v>
       </c>
       <c r="D17">
-        <v>0.1586312463934547</v>
+        <v>0.1460423490157012</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.798843512225936</v>
+        <v>0.8918596927577624</v>
       </c>
       <c r="G17">
-        <v>0.00249536597308174</v>
+        <v>0.0008166722256863704</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.144721870538149</v>
+        <v>0.4810392345327941</v>
       </c>
       <c r="J17">
-        <v>0.1989646925326376</v>
+        <v>0.08076696552624796</v>
       </c>
       <c r="K17">
-        <v>0.5130518275572911</v>
+        <v>1.381481376258392</v>
       </c>
       <c r="L17">
-        <v>0.3774806570845328</v>
+        <v>0.3575719811327929</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.592859983448761</v>
+        <v>2.128284924811112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7796123484140765</v>
+        <v>1.55339319087841</v>
       </c>
       <c r="C18">
-        <v>0.09837821278733827</v>
+        <v>0.1128852201663193</v>
       </c>
       <c r="D18">
-        <v>0.1579051801316922</v>
+        <v>0.1429560197507982</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.800251713850955</v>
+        <v>0.8871161142054902</v>
       </c>
       <c r="G18">
-        <v>0.002495920399228932</v>
+        <v>0.0008175810643958938</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.146686636081984</v>
+        <v>0.482198165736353</v>
       </c>
       <c r="J18">
-        <v>0.1991775223145567</v>
+        <v>0.08067555516884539</v>
       </c>
       <c r="K18">
-        <v>0.5028368801218619</v>
+        <v>1.347209125221525</v>
       </c>
       <c r="L18">
-        <v>0.3758025549556692</v>
+        <v>0.3500969129154612</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.59881052239254</v>
+        <v>2.124215260876724</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7757778522403385</v>
+        <v>1.539976377014113</v>
       </c>
       <c r="C19">
-        <v>0.0982251522385198</v>
+        <v>0.1124366838246829</v>
       </c>
       <c r="D19">
-        <v>0.157660184280715</v>
+        <v>0.141912656433874</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.800742300926437</v>
+        <v>0.8855404400620657</v>
       </c>
       <c r="G19">
-        <v>0.002496109452660916</v>
+        <v>0.0008178899216261803</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.147360350149366</v>
+        <v>0.4826089137284555</v>
       </c>
       <c r="J19">
-        <v>0.1992507352558093</v>
+        <v>0.08064666228323958</v>
       </c>
       <c r="K19">
-        <v>0.4993785879935615</v>
+        <v>1.335611803750936</v>
       </c>
       <c r="L19">
-        <v>0.3752366855198801</v>
+        <v>0.3475712296211384</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.600861530459269</v>
+        <v>2.122919797747755</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7930429655115745</v>
+        <v>1.600393792287264</v>
       </c>
       <c r="C20">
-        <v>0.0989133246567846</v>
+        <v>0.114455935249822</v>
       </c>
       <c r="D20">
-        <v>0.1587660222684519</v>
+        <v>0.1466143363302876</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.798589436838938</v>
+        <v>0.8927521965803606</v>
       </c>
       <c r="G20">
-        <v>0.002495263994398514</v>
+        <v>0.0008165045588008346</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.144362263407007</v>
+        <v>0.480833526389798</v>
       </c>
       <c r="J20">
-        <v>0.1989258497553159</v>
+        <v>0.08078486691143283</v>
       </c>
       <c r="K20">
-        <v>0.5149425290380805</v>
+        <v>1.387827669331955</v>
       </c>
       <c r="L20">
-        <v>0.3777923307974334</v>
+        <v>0.3589579737313358</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.591775893460294</v>
+        <v>2.129077627505751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8512132943194786</v>
+        <v>1.804163279471425</v>
       </c>
       <c r="C21">
-        <v>0.1012145845444223</v>
+        <v>0.1212565683137043</v>
       </c>
       <c r="D21">
-        <v>0.1625394018839756</v>
+        <v>0.1625298928231018</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.79231503191032</v>
+        <v>0.9191757669606204</v>
       </c>
       <c r="G21">
-        <v>0.002492515945594289</v>
+        <v>0.0008119274787855046</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.134878716853727</v>
+        <v>0.4761859895087213</v>
       </c>
       <c r="J21">
-        <v>0.1979143463789512</v>
+        <v>0.08139618406155336</v>
       </c>
       <c r="K21">
-        <v>0.5672541370007593</v>
+        <v>1.563791405501036</v>
       </c>
       <c r="L21">
-        <v>0.3865387305557988</v>
+        <v>0.3976014349418477</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.563770916105028</v>
+        <v>2.155708955692262</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8893473755527452</v>
+        <v>1.938005546916855</v>
       </c>
       <c r="C22">
-        <v>0.1027103350444349</v>
+        <v>0.1257163678576063</v>
       </c>
       <c r="D22">
-        <v>0.1650482660985375</v>
+        <v>0.1730276072971009</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.788928259218409</v>
+        <v>0.9381736753631316</v>
       </c>
       <c r="G22">
-        <v>0.002490788659286863</v>
+        <v>0.0008089917401187659</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.129119918346973</v>
+        <v>0.4741803548903576</v>
       </c>
       <c r="J22">
-        <v>0.1973128267504478</v>
+        <v>0.08190997691441737</v>
       </c>
       <c r="K22">
-        <v>0.6014534591332108</v>
+        <v>1.679260942226364</v>
       </c>
       <c r="L22">
-        <v>0.3923732585700321</v>
+        <v>0.4231697549867306</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.547346486041278</v>
+        <v>2.177794638322013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8689841209834412</v>
+        <v>1.866504420912975</v>
       </c>
       <c r="C23">
-        <v>0.1019127884621724</v>
+        <v>0.1233344910922511</v>
       </c>
       <c r="D23">
-        <v>0.1637053542332296</v>
+        <v>0.1674154919606252</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.790670570892203</v>
+        <v>0.9278697244642444</v>
       </c>
       <c r="G23">
-        <v>0.002491704273769555</v>
+        <v>0.0008105536496103832</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.132153319169596</v>
+        <v>0.4751530822617909</v>
       </c>
       <c r="J23">
-        <v>0.1976284273252986</v>
+        <v>0.08162498780862038</v>
       </c>
       <c r="K23">
-        <v>0.5831998811445942</v>
+        <v>1.617584921968415</v>
       </c>
       <c r="L23">
-        <v>0.3892484950274309</v>
+        <v>0.4094931845075536</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.555940692601808</v>
+        <v>2.165562081710362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7920942279685619</v>
+        <v>1.597073259236083</v>
       </c>
       <c r="C24">
-        <v>0.09887557421250648</v>
+        <v>0.1143449941291763</v>
       </c>
       <c r="D24">
-        <v>0.1587050759721222</v>
+        <v>0.1463557152775792</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.798704052346281</v>
+        <v>0.8923481426280375</v>
       </c>
       <c r="G24">
-        <v>0.002495310074148326</v>
+        <v>0.0008165803392759231</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.144524685345658</v>
+        <v>0.4809261883444762</v>
       </c>
       <c r="J24">
-        <v>0.1989433893951791</v>
+        <v>0.08077673612054426</v>
       </c>
       <c r="K24">
-        <v>0.5140877519294236</v>
+        <v>1.384958431005828</v>
       </c>
       <c r="L24">
-        <v>0.3776513837324131</v>
+        <v>0.3583312797063769</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.592265344949425</v>
+        <v>2.128717735644443</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7096831907826129</v>
+        <v>1.308747325035739</v>
       </c>
       <c r="C25">
-        <v>0.09556482223538865</v>
+        <v>0.1046940758198076</v>
       </c>
       <c r="D25">
-        <v>0.1534976940453419</v>
+        <v>0.1240031222187667</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.810439626686708</v>
+        <v>0.860858322420647</v>
       </c>
       <c r="G25">
-        <v>0.002499496360575199</v>
+        <v>0.0008233336838138604</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.159756377057903</v>
+        <v>0.4912679013891079</v>
       </c>
       <c r="J25">
-        <v>0.2006182597905166</v>
+        <v>0.0803223967778699</v>
       </c>
       <c r="K25">
-        <v>0.4396068417128731</v>
+        <v>1.135562019898885</v>
       </c>
       <c r="L25">
-        <v>0.3656550870597073</v>
+        <v>0.3043272034878726</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.639517929082672</v>
+        <v>2.107475961943265</v>
       </c>
     </row>
   </sheetData>
